--- a/biology/Zoologie/Amatitlania_septemfasciata/Amatitlania_septemfasciata.xlsx
+++ b/biology/Zoologie/Amatitlania_septemfasciata/Amatitlania_septemfasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amatitlania septemfasciata est une espèce de poissons d'eau douce de la famille des Cichlidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amatitlania septemfasciata mesure jusqu'à 10 cm, queue non comprise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amatitlania septemfasciata mesure jusqu'à 10 cm, queue non comprise.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre au Costa Rica, au Nicaragua et au Panama[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre au Costa Rica, au Nicaragua et au Panama.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Amatitlania septemfasciata (Regan, 1908)[3]. L'espèce Amatitlania septemfasciata a été décrite pour la première fois en 1908 par l'ichtyologiste britannique Regan (1878-1943) sous le protonyme Cichlasoma septemfasciatum[4],[5].
-Amatitlania septemfasciata a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Amatitlania septemfasciata (Regan, 1908). L'espèce Amatitlania septemfasciata a été décrite pour la première fois en 1908 par l'ichtyologiste britannique Regan (1878-1943) sous le protonyme Cichlasoma septemfasciatum,.
+Amatitlania septemfasciata a pour synonymes :
 Archocentrus septemfasciatus (Regan, 1908)
 Cichlasoma septemfasciatum Regan, 1908
 Cichlosoma atromaculatum septemfasciatum Regan, 1908
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) C. Tate Regan, « A collection of freshwater fishes made by Mr. C. F. underwood in Costa Rica », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 2, no 11,‎ novembre 1908, p. 455–464 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222930808692515, lire en ligne)</t>
         </is>
